--- a/Spark/Spark_Part_List.xlsx
+++ b/Spark/Spark_Part_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="154">
   <si>
     <t>Ref</t>
   </si>
@@ -88,9 +88,6 @@
     <t>LED</t>
   </si>
   <si>
-    <t>LP_Footprint_Library:LP_LED</t>
-  </si>
-  <si>
     <t xml:space="preserve">Q1, Q5, </t>
   </si>
   <si>
@@ -208,9 +205,6 @@
     <t xml:space="preserve">RV1, RV7, </t>
   </si>
   <si>
-    <t>LP_Footprint_Library:ALPS-RK09K</t>
-  </si>
-  <si>
     <t xml:space="preserve">RV2, RV4, RV8, </t>
   </si>
   <si>
@@ -220,9 +214,6 @@
     <t xml:space="preserve">RV3, </t>
   </si>
   <si>
-    <t>LP_Footprint_Library:Tayda_Trimpot_6mm</t>
-  </si>
-  <si>
     <t xml:space="preserve">RV5, </t>
   </si>
   <si>
@@ -238,33 +229,12 @@
     <t>ON_OFF_ON</t>
   </si>
   <si>
-    <t>LP_Footprint_Library:THONK_SUB_MINI_SPDT</t>
-  </si>
-  <si>
     <t xml:space="preserve">SW2, </t>
   </si>
   <si>
     <t>SW_Push</t>
   </si>
   <si>
-    <t>Button_Switch_THT:SW_PUSH_6mm_H13mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1, </t>
-  </si>
-  <si>
-    <t>DURATION_CV_IN</t>
-  </si>
-  <si>
-    <t>LP_Footprint_Library:THONKICON_Jack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2, </t>
-  </si>
-  <si>
-    <t>TRIGGER_IN</t>
-  </si>
-  <si>
     <t xml:space="preserve">U3, U6, U11, </t>
   </si>
   <si>
@@ -286,24 +256,6 @@
     <t>Connector_IDC:IDC-Header_2x05_P2.54mm_Vertical</t>
   </si>
   <si>
-    <t xml:space="preserve">U5, </t>
-  </si>
-  <si>
-    <t>EXTERNAL_CLOCK_IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U7, </t>
-  </si>
-  <si>
-    <t>SLOPE_OUT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U8, </t>
-  </si>
-  <si>
-    <t>ENVELOPE_BURST_OUT</t>
-  </si>
-  <si>
     <t xml:space="preserve">U9, </t>
   </si>
   <si>
@@ -316,18 +268,6 @@
     <t>Johnson Counter ( 10 outputs )</t>
   </si>
   <si>
-    <t xml:space="preserve">U10, </t>
-  </si>
-  <si>
-    <t>RATE_CV_IN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U12, </t>
-  </si>
-  <si>
-    <t>EOC_OUT</t>
-  </si>
-  <si>
     <t xml:space="preserve">U13, </t>
   </si>
   <si>
@@ -337,12 +277,6 @@
     <t>Phase Comp &amp; VCO</t>
   </si>
   <si>
-    <t xml:space="preserve">U14, </t>
-  </si>
-  <si>
-    <t>GATE_BURST_OUT</t>
-  </si>
-  <si>
     <t>Parts List</t>
   </si>
   <si>
@@ -355,9 +289,6 @@
     <t>Spark - Analog Burst Generator</t>
   </si>
   <si>
-    <t>Remarks</t>
-  </si>
-  <si>
     <t>Ceramic Capacitor</t>
   </si>
   <si>
@@ -424,16 +355,127 @@
     <t>Alps Potentiometer, plastic shaft</t>
   </si>
   <si>
-    <t>Document Version 03/01/2023</t>
-  </si>
-  <si>
-    <t>Or use with button cap</t>
-  </si>
-  <si>
     <t>Trim-potentiometer, 6mm</t>
   </si>
   <si>
-    <t>Push button switch, 6x6mm, Height 13mm</t>
+    <t>U1, U2, U5, U7, U8, U10, U12, U14</t>
+  </si>
+  <si>
+    <t>Mono Jacks</t>
+  </si>
+  <si>
+    <t>LP_LED</t>
+  </si>
+  <si>
+    <t>Tayda_Trimpot_6mm</t>
+  </si>
+  <si>
+    <t>ALPS-RK09K</t>
+  </si>
+  <si>
+    <t>THONK_SUB_MINI_SPDT</t>
+  </si>
+  <si>
+    <t>Thonk</t>
+  </si>
+  <si>
+    <t>Tayda</t>
+  </si>
+  <si>
+    <t>Conn_01x01</t>
+  </si>
+  <si>
+    <t>Diverse</t>
+  </si>
+  <si>
+    <t>Document Version 04/01/2023</t>
+  </si>
+  <si>
+    <t>PJ398SM</t>
+  </si>
+  <si>
+    <t>A-2563</t>
+  </si>
+  <si>
+    <t>A-261</t>
+  </si>
+  <si>
+    <t>A-157</t>
+  </si>
+  <si>
+    <t>A-111</t>
+  </si>
+  <si>
+    <t>A-3967</t>
+  </si>
+  <si>
+    <t>A-075</t>
+  </si>
+  <si>
+    <t>A-141</t>
+  </si>
+  <si>
+    <t>A-5459</t>
+  </si>
+  <si>
+    <t>A-951</t>
+  </si>
+  <si>
+    <t>A-1987</t>
+  </si>
+  <si>
+    <t>A-4407</t>
+  </si>
+  <si>
+    <t>A-4534</t>
+  </si>
+  <si>
+    <t>A-4755</t>
+  </si>
+  <si>
+    <t>A-2500</t>
+  </si>
+  <si>
+    <t>A-2506</t>
+  </si>
+  <si>
+    <t>A-1851</t>
+  </si>
+  <si>
+    <t>A-5623</t>
+  </si>
+  <si>
+    <t>A1M - T18 shaft</t>
+  </si>
+  <si>
+    <t>DW2 - SPDT ON-OFF-ON</t>
+  </si>
+  <si>
+    <t>A-020</t>
+  </si>
+  <si>
+    <t>A-006</t>
+  </si>
+  <si>
+    <t>A-1138</t>
+  </si>
+  <si>
+    <t>A-2939</t>
+  </si>
+  <si>
+    <t>A-196</t>
+  </si>
+  <si>
+    <t>A-197</t>
+  </si>
+  <si>
+    <t>A-5156</t>
+  </si>
+  <si>
+    <t>Push button switch, 6x6m</t>
+  </si>
+  <si>
+    <t>Use Tayda A-5156: or Mouser:  612-TL1105SP with Mouser: 612-1R-DGR</t>
   </si>
 </sst>
 </file>
@@ -950,7 +992,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -969,6 +1011,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1311,893 +1363,940 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F58"/>
+  <dimension ref="A2:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="2.109375" customWidth="1"/>
+    <col min="3" max="3" width="48.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C2" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C6" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>4</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>2</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>2</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="10">
+        <v>11</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="10">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="E19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
         <v>5</v>
       </c>
-      <c r="B10" s="6">
-        <v>9</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="6">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="6">
-        <v>2</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="6">
-        <v>2</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16" s="6">
-        <v>11</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="6">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>131</v>
-      </c>
-      <c r="E18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" t="s">
-        <v>120</v>
-      </c>
-      <c r="E19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D21" t="s">
-        <v>122</v>
-      </c>
-      <c r="E21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="D22" t="s">
         <v>33</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" t="s">
-        <v>36</v>
       </c>
       <c r="E22" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
         <v>37</v>
-      </c>
-      <c r="B23">
-        <v>8</v>
-      </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" t="s">
-        <v>36</v>
       </c>
       <c r="E23" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="F23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
         <v>39</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" t="s">
-        <v>36</v>
       </c>
       <c r="E24" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="F24" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
         <v>41</v>
-      </c>
-      <c r="B25">
-        <v>9</v>
-      </c>
-      <c r="C25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" t="s">
-        <v>36</v>
       </c>
       <c r="E25" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="F25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>6</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
         <v>43</v>
-      </c>
-      <c r="B26">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" t="s">
-        <v>36</v>
       </c>
       <c r="E26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" t="s">
         <v>45</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" t="s">
-        <v>36</v>
       </c>
       <c r="E27" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="F27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>4</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
         <v>47</v>
-      </c>
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" t="s">
-        <v>36</v>
       </c>
       <c r="E28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" t="s">
         <v>49</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" t="s">
-        <v>36</v>
       </c>
       <c r="E29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" t="s">
         <v>51</v>
-      </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" t="s">
-        <v>36</v>
       </c>
       <c r="E30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" t="s">
         <v>53</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" t="s">
-        <v>36</v>
       </c>
       <c r="E31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" t="s">
         <v>55</v>
       </c>
-      <c r="B32">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34" t="s">
-        <v>127</v>
-      </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="E34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="F34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>1</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" t="s">
         <v>59</v>
       </c>
-      <c r="B35">
+      <c r="E35" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
         <v>1</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="C36" t="s">
-        <v>60</v>
-      </c>
       <c r="D36" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="F36" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+      <c r="E37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H38" s="11"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="H39" s="11"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38">
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="H40" s="11"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="H41" s="11"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="8">
         <v>1</v>
       </c>
-      <c r="C38" t="s">
-        <v>42</v>
-      </c>
-      <c r="D38" t="s">
-        <v>138</v>
-      </c>
-      <c r="E38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="C42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D43" t="s">
         <v>70</v>
       </c>
-      <c r="B39">
+      <c r="E43" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="8">
         <v>1</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C44" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D39" t="s">
-        <v>138</v>
-      </c>
-      <c r="E39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" t="s">
-        <v>135</v>
-      </c>
-      <c r="E40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41">
+      <c r="D44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="8">
+        <v>8</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D46" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="8">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" t="s">
+        <v>86</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="8">
         <v>3</v>
       </c>
-      <c r="C41" t="s">
-        <v>42</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C48" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H48" s="11"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="8">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" t="s">
+        <v>103</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="H49" s="11"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="8">
+        <v>22</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>133</v>
-      </c>
-      <c r="D42" t="s">
-        <v>132</v>
-      </c>
-      <c r="E42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" t="s">
-        <v>73</v>
-      </c>
-      <c r="D43" t="s">
-        <v>124</v>
-      </c>
-      <c r="E43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E44" t="s">
-        <v>77</v>
-      </c>
-      <c r="F44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
-      </c>
-      <c r="C45" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" t="s">
-        <v>125</v>
-      </c>
-      <c r="E45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" t="s">
-        <v>125</v>
-      </c>
-      <c r="E46" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" t="s">
-        <v>125</v>
-      </c>
-      <c r="E47" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" t="s">
-        <v>93</v>
-      </c>
-      <c r="D48" t="s">
-        <v>125</v>
-      </c>
-      <c r="E48" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D49" t="s">
-        <v>125</v>
-      </c>
-      <c r="E49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" t="s">
-        <v>101</v>
-      </c>
       <c r="D50" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>103</v>
+        <v>107</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="H50" s="11"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="8">
+        <v>22</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="D51" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" t="s">
-        <v>108</v>
-      </c>
-      <c r="D52" t="s">
-        <v>125</v>
-      </c>
-      <c r="E52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" t="s">
-        <v>99</v>
-      </c>
-      <c r="E53" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F51" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D54" t="s">
-        <v>106</v>
-      </c>
-      <c r="E54" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
-        <v>84</v>
-      </c>
-      <c r="D55" t="s">
-        <v>86</v>
-      </c>
-      <c r="E55" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56" t="s">
-        <v>88</v>
-      </c>
-      <c r="D56" t="s">
-        <v>126</v>
-      </c>
-      <c r="E56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B57">
-        <v>22</v>
-      </c>
-      <c r="D57" t="s">
-        <v>130</v>
-      </c>
-      <c r="E57" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B58">
-        <v>22</v>
-      </c>
-      <c r="D58" t="s">
-        <v>129</v>
-      </c>
-      <c r="E58" t="s">
-        <v>128</v>
-      </c>
+      <c r="G51" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="H51" s="11"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Spark/Spark_Part_List.xlsx
+++ b/Spark/Spark_Part_List.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="156">
   <si>
     <t>Ref</t>
   </si>
@@ -136,9 +136,6 @@
     <t>200k</t>
   </si>
   <si>
-    <t xml:space="preserve">R4, R7, R15, R16, R19, R38, R39, R40, R41, </t>
-  </si>
-  <si>
     <t>100k</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>68k</t>
   </si>
   <si>
-    <t xml:space="preserve">R9, R10, R11, R14, </t>
-  </si>
-  <si>
     <t>1M</t>
   </si>
   <si>
@@ -388,9 +382,6 @@
     <t>Diverse</t>
   </si>
   <si>
-    <t>Document Version 04/01/2023</t>
-  </si>
-  <si>
     <t>PJ398SM</t>
   </si>
   <si>
@@ -476,6 +467,21 @@
   </si>
   <si>
     <t>Use Tayda A-5156: or Mouser:  612-TL1105SP with Mouser: 612-1R-DGR</t>
+  </si>
+  <si>
+    <t>Document Version 12/04/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R4, R7, R10, R15, R16, R19, R38, R39, R40, R41, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9, R11, R14, </t>
+  </si>
+  <si>
+    <t>The Silkscreen of R17 and R21 are swapped. See also iBom for the corrected labelling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attention. The PCB with IC's of Spark version 1.0 has a little bug  !! </t>
   </si>
 </sst>
 </file>
@@ -645,7 +651,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -828,6 +834,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,7 +1004,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1021,6 +1033,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1366,7 +1379,7 @@
   <dimension ref="A2:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1375,7 +1388,7 @@
     <col min="2" max="2" width="2.109375" customWidth="1"/>
     <col min="3" max="3" width="48.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="73" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="63.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.109375" customWidth="1"/>
     <col min="8" max="8" width="21.88671875" bestFit="1" customWidth="1"/>
@@ -1383,27 +1396,33 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
-        <v>124</v>
+        <v>151</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C6" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1424,10 +1443,10 @@
         <v>3</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1442,13 +1461,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H10" s="11"/>
     </row>
@@ -1464,13 +1483,13 @@
         <v>6</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H11" s="11"/>
     </row>
@@ -1486,13 +1505,13 @@
         <v>11</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H12" s="11"/>
     </row>
@@ -1508,13 +1527,13 @@
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H13" s="11"/>
     </row>
@@ -1530,13 +1549,13 @@
         <v>18</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H14" s="11"/>
     </row>
@@ -1552,13 +1571,13 @@
         <v>13</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H15" s="11"/>
     </row>
@@ -1568,19 +1587,19 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H16" s="11"/>
     </row>
@@ -1596,13 +1615,13 @@
         <v>23</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="H17" s="11"/>
     </row>
@@ -1617,13 +1636,13 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F18" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H18" s="11"/>
     </row>
@@ -1635,16 +1654,16 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F19" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H19" s="11"/>
     </row>
@@ -1659,13 +1678,13 @@
         <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F20" t="s">
         <v>26</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H20" s="11"/>
     </row>
@@ -1680,13 +1699,13 @@
         <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F21" t="s">
         <v>26</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H21" s="11"/>
     </row>
@@ -1752,10 +1771,10 @@
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D25" t="s">
         <v>40</v>
-      </c>
-      <c r="D25" t="s">
-        <v>41</v>
       </c>
       <c r="E25" t="s">
         <v>35</v>
@@ -1771,10 +1790,10 @@
         <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
         <v>42</v>
-      </c>
-      <c r="D26" t="s">
-        <v>43</v>
       </c>
       <c r="E26" t="s">
         <v>35</v>
@@ -1790,10 +1809,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" t="s">
         <v>44</v>
-      </c>
-      <c r="D27" t="s">
-        <v>45</v>
       </c>
       <c r="E27" t="s">
         <v>35</v>
@@ -1809,10 +1828,10 @@
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E28" t="s">
         <v>35</v>
@@ -1828,10 +1847,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E29" t="s">
         <v>35</v>
@@ -1847,10 +1866,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E30" t="s">
         <v>35</v>
@@ -1866,10 +1885,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E31" t="s">
         <v>35</v>
@@ -1885,7 +1904,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
         <v>37</v>
@@ -1894,7 +1913,7 @@
         <v>35</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
@@ -1904,16 +1923,16 @@
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E33" t="s">
         <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -1923,10 +1942,10 @@
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E34" t="s">
         <v>35</v>
@@ -1942,16 +1961,16 @@
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E35" t="s">
         <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
@@ -1961,10 +1980,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E36" t="s">
         <v>35</v>
@@ -1980,7 +1999,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D37" t="s">
         <v>33</v>
@@ -1989,7 +2008,7 @@
         <v>35</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -1999,19 +2018,19 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H38" s="11"/>
     </row>
@@ -2020,19 +2039,19 @@
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E39" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H39" s="11"/>
     </row>
@@ -2041,19 +2060,19 @@
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H40" s="11"/>
     </row>
@@ -2062,19 +2081,19 @@
         <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H41" s="11"/>
     </row>
@@ -2083,20 +2102,20 @@
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -2104,20 +2123,20 @@
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="11" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2125,19 +2144,19 @@
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D44" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H44" s="11"/>
     </row>
@@ -2146,22 +2165,22 @@
         <v>8</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H45" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -2169,19 +2188,19 @@
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" t="s">
+        <v>79</v>
+      </c>
+      <c r="E46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D46" t="s">
-        <v>81</v>
-      </c>
-      <c r="E46" t="s">
-        <v>83</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>82</v>
-      </c>
       <c r="G46" s="11" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H46" s="11"/>
     </row>
@@ -2190,19 +2209,19 @@
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" t="s">
         <v>84</v>
       </c>
-      <c r="D47" t="s">
-        <v>85</v>
-      </c>
-      <c r="E47" t="s">
-        <v>86</v>
-      </c>
       <c r="F47" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H47" s="11"/>
     </row>
@@ -2211,19 +2230,19 @@
         <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D48" t="s">
-        <v>74</v>
-      </c>
-      <c r="E48" t="s">
-        <v>76</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="G48" s="11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H48" s="11"/>
     </row>
@@ -2232,19 +2251,19 @@
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D49" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D49" t="s">
-        <v>78</v>
-      </c>
-      <c r="E49" t="s">
-        <v>103</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>79</v>
-      </c>
       <c r="G49" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H49" s="11"/>
     </row>
@@ -2253,19 +2272,19 @@
         <v>22</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D50" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E50" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H50" s="11"/>
     </row>
@@ -2274,19 +2293,19 @@
         <v>22</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D51" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H51" s="11"/>
     </row>

--- a/Spark/Spark_Part_List.xlsx
+++ b/Spark/Spark_Part_List.xlsx
@@ -112,9 +112,6 @@
     <t>BC548</t>
   </si>
   <si>
-    <t xml:space="preserve">R1, R8, R24, R30, R37, </t>
-  </si>
-  <si>
     <t>1k</t>
   </si>
   <si>
@@ -469,12 +466,6 @@
     <t>Use Tayda A-5156: or Mouser:  612-TL1105SP with Mouser: 612-1R-DGR</t>
   </si>
   <si>
-    <t>Document Version 12/04/2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4, R7, R10, R15, R16, R19, R38, R39, R40, R41, </t>
-  </si>
-  <si>
     <t xml:space="preserve">R9, R11, R14, </t>
   </si>
   <si>
@@ -482,6 +473,15 @@
   </si>
   <si>
     <t xml:space="preserve">Attention. The PCB with IC's of Spark version 1.0 has a little bug  !! </t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7, R10, R15, R16, R19, R38, R39, R40, R41, </t>
+  </si>
+  <si>
+    <t>Document Version 01/06/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1, R4, R8, R24, R30, R37, </t>
   </si>
 </sst>
 </file>
@@ -1379,7 +1379,7 @@
   <dimension ref="A2:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1396,33 +1396,33 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C2" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C6" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -1443,10 +1443,10 @@
         <v>3</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1461,13 +1461,13 @@
         <v>6</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" t="s">
         <v>7</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H10" s="11"/>
     </row>
@@ -1483,13 +1483,13 @@
         <v>6</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F11" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H11" s="11"/>
     </row>
@@ -1505,13 +1505,13 @@
         <v>11</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F12" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H12" s="11"/>
     </row>
@@ -1527,13 +1527,13 @@
         <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
         <v>9</v>
       </c>
       <c r="G13" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H13" s="11"/>
     </row>
@@ -1549,13 +1549,13 @@
         <v>18</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H14" s="11"/>
     </row>
@@ -1571,13 +1571,13 @@
         <v>13</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H15" s="11"/>
     </row>
@@ -1587,19 +1587,19 @@
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H16" s="11"/>
     </row>
@@ -1615,13 +1615,13 @@
         <v>23</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H17" s="11"/>
     </row>
@@ -1636,13 +1636,13 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F18" t="s">
         <v>26</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H18" s="11"/>
     </row>
@@ -1654,16 +1654,16 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F19" t="s">
         <v>26</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H19" s="11"/>
     </row>
@@ -1678,13 +1678,13 @@
         <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F20" t="s">
         <v>26</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H20" s="11"/>
     </row>
@@ -1699,31 +1699,31 @@
         <v>31</v>
       </c>
       <c r="E21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F21" t="s">
         <v>26</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22" t="s">
         <v>32</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" t="s">
         <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>35</v>
-      </c>
-      <c r="F22" t="s">
-        <v>34</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
@@ -1733,16 +1733,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
         <v>36</v>
       </c>
-      <c r="D23" t="s">
-        <v>37</v>
-      </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -1752,35 +1752,35 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
         <v>38</v>
       </c>
-      <c r="D24" t="s">
-        <v>39</v>
-      </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -1790,16 +1790,16 @@
         <v>6</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
         <v>41</v>
       </c>
-      <c r="D26" t="s">
-        <v>42</v>
-      </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -1809,16 +1809,16 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
         <v>43</v>
       </c>
-      <c r="D27" t="s">
-        <v>44</v>
-      </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -1828,16 +1828,16 @@
         <v>4</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -1847,16 +1847,16 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
         <v>46</v>
       </c>
-      <c r="D29" t="s">
-        <v>47</v>
-      </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -1866,16 +1866,16 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" t="s">
         <v>48</v>
       </c>
-      <c r="D30" t="s">
-        <v>49</v>
-      </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -1885,16 +1885,16 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s">
         <v>50</v>
       </c>
-      <c r="D31" t="s">
-        <v>51</v>
-      </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
@@ -1904,16 +1904,16 @@
         <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" t="s">
         <v>52</v>
-      </c>
-      <c r="D32" t="s">
-        <v>37</v>
-      </c>
-      <c r="E32" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" t="s">
-        <v>53</v>
       </c>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
@@ -1923,16 +1923,16 @@
         <v>1</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -1942,16 +1942,16 @@
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -1961,16 +1961,16 @@
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" t="s">
         <v>56</v>
       </c>
-      <c r="D35" t="s">
-        <v>57</v>
-      </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
@@ -1980,16 +1980,16 @@
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
@@ -1999,16 +1999,16 @@
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -2018,19 +2018,19 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H38" s="11"/>
     </row>
@@ -2039,19 +2039,19 @@
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" t="s">
         <v>65</v>
       </c>
-      <c r="D39" t="s">
-        <v>66</v>
-      </c>
       <c r="E39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H39" s="11"/>
     </row>
@@ -2060,19 +2060,19 @@
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G40" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H40" s="11"/>
     </row>
@@ -2081,19 +2081,19 @@
         <v>3</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" t="s">
+        <v>97</v>
+      </c>
+      <c r="F41" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D41" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>62</v>
-      </c>
       <c r="G41" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H41" s="11"/>
     </row>
@@ -2102,20 +2102,20 @@
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -2123,20 +2123,20 @@
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" t="s">
         <v>67</v>
       </c>
-      <c r="D43" t="s">
-        <v>68</v>
-      </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -2144,19 +2144,19 @@
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
         <v>69</v>
       </c>
-      <c r="D44" t="s">
-        <v>70</v>
-      </c>
       <c r="E44" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F44" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="F44" s="11" t="s">
-        <v>150</v>
-      </c>
       <c r="G44" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H44" s="11"/>
     </row>
@@ -2165,22 +2165,22 @@
         <v>8</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" t="s">
         <v>112</v>
       </c>
-      <c r="D45" t="s">
-        <v>113</v>
-      </c>
       <c r="E45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F45" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G45" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="G45" s="11" t="s">
-        <v>123</v>
-      </c>
       <c r="H45" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -2188,19 +2188,19 @@
         <v>1</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" t="s">
         <v>78</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E46" t="s">
-        <v>81</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>80</v>
-      </c>
       <c r="G46" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H46" s="11"/>
     </row>
@@ -2209,19 +2209,19 @@
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" t="s">
         <v>82</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>83</v>
       </c>
-      <c r="E47" t="s">
-        <v>84</v>
-      </c>
       <c r="F47" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H47" s="11"/>
     </row>
@@ -2230,19 +2230,19 @@
         <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" t="s">
         <v>71</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E48" t="s">
-        <v>74</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>73</v>
-      </c>
       <c r="G48" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H48" s="11"/>
     </row>
@@ -2251,19 +2251,19 @@
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D49" t="s">
         <v>75</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
+        <v>100</v>
+      </c>
+      <c r="F49" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E49" t="s">
-        <v>101</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>77</v>
-      </c>
       <c r="G49" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H49" s="11"/>
     </row>
@@ -2272,19 +2272,19 @@
         <v>22</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H50" s="11"/>
     </row>
@@ -2293,19 +2293,19 @@
         <v>22</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H51" s="11"/>
     </row>
